--- a/model/results/mix1_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/mix1_ggpos_h2pos/v_emissions.xlsx
@@ -787,10 +787,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="D3" t="n">
-        <v>2692838.725834353</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="E3" t="n">
-        <v>816538.3333333334</v>
+        <v>849791.0256410256</v>
       </c>
       <c r="F3" t="n">
         <v>816538.3333333334</v>
@@ -862,10 +862,10 @@
         <v>2050</v>
       </c>
       <c r="AC3" t="n">
-        <v>49200</v>
+        <v>49199.99999998286</v>
       </c>
       <c r="AD3" t="n">
-        <v>12300</v>
+        <v>12299.99999998285</v>
       </c>
       <c r="AE3" t="n">
         <v>110700</v>
@@ -918,10 +918,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="D4" t="n">
-        <v>2692838.725834353</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="E4" t="n">
-        <v>816538.3333333334</v>
+        <v>849791.0256410256</v>
       </c>
       <c r="F4" t="n">
         <v>816538.3333333334</v>
@@ -993,10 +993,10 @@
         <v>2050</v>
       </c>
       <c r="AC4" t="n">
-        <v>49200</v>
+        <v>49199.99999998286</v>
       </c>
       <c r="AD4" t="n">
-        <v>12300</v>
+        <v>12299.99999998285</v>
       </c>
       <c r="AE4" t="n">
         <v>110700</v>
@@ -1049,10 +1049,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="D5" t="n">
-        <v>2692838.725834353</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="E5" t="n">
-        <v>816538.3333333334</v>
+        <v>849791.0256410256</v>
       </c>
       <c r="F5" t="n">
         <v>816538.3333333334</v>
@@ -1124,10 +1124,10 @@
         <v>2050</v>
       </c>
       <c r="AC5" t="n">
-        <v>49200</v>
+        <v>49199.99999998286</v>
       </c>
       <c r="AD5" t="n">
-        <v>12300</v>
+        <v>12299.99999998285</v>
       </c>
       <c r="AE5" t="n">
         <v>110700</v>
@@ -1142,10 +1142,10 @@
         <v>197600</v>
       </c>
       <c r="AI5" t="n">
-        <v>167960</v>
+        <v>167960.0000000003</v>
       </c>
       <c r="AJ5" t="n">
-        <v>167960</v>
+        <v>167960.0000000003</v>
       </c>
       <c r="AK5" t="n">
         <v>395200</v>
@@ -1154,19 +1154,19 @@
         <v>395200</v>
       </c>
       <c r="AM5" t="n">
-        <v>167960</v>
+        <v>167960.0000000003</v>
       </c>
       <c r="AN5" t="n">
-        <v>296400</v>
+        <v>296400.0000000005</v>
       </c>
       <c r="AO5" t="n">
         <v>167960</v>
       </c>
       <c r="AP5" t="n">
-        <v>167960</v>
+        <v>167960.0000000003</v>
       </c>
       <c r="AQ5" t="n">
-        <v>167960</v>
+        <v>167960.0000000003</v>
       </c>
     </row>
     <row r="6">
@@ -1177,16 +1177,16 @@
         <v>1520949.23076923</v>
       </c>
       <c r="C6" t="n">
-        <v>2135861.549879791</v>
+        <v>1669461.078098487</v>
       </c>
       <c r="D6" t="n">
-        <v>1437452.059167686</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="E6" t="n">
+        <v>465537.6923076922</v>
+      </c>
+      <c r="F6" t="n">
         <v>624411.6666666666</v>
-      </c>
-      <c r="F6" t="n">
-        <v>816538.3333333334</v>
       </c>
       <c r="G6" t="n">
         <v>65600</v>
@@ -1255,10 +1255,10 @@
         <v>1189</v>
       </c>
       <c r="AC6" t="n">
-        <v>28536</v>
+        <v>28535.99999998842</v>
       </c>
       <c r="AD6" t="n">
-        <v>7133.999999999999</v>
+        <v>7133.999999988416</v>
       </c>
       <c r="AE6" t="n">
         <v>64205.99999999999</v>
@@ -1308,16 +1308,16 @@
         <v>1520949.23076923</v>
       </c>
       <c r="C7" t="n">
-        <v>265562.5641025551</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D7" t="n">
-        <v>1437452.059167686</v>
+        <v>1520949.230769231</v>
       </c>
       <c r="E7" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435881</v>
       </c>
       <c r="F7" t="n">
-        <v>432284.999999998</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="G7" t="n">
         <v>65600</v>
@@ -1386,10 +1386,10 @@
         <v>1178.75</v>
       </c>
       <c r="AC7" t="n">
-        <v>28290</v>
+        <v>28289.99999998849</v>
       </c>
       <c r="AD7" t="n">
-        <v>7072.499999999999</v>
+        <v>7072.499999988482</v>
       </c>
       <c r="AE7" t="n">
         <v>63652.49999999999</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>265562.5641025631</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="C8" t="n">
-        <v>265562.5641025551</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D8" t="n">
-        <v>1437452.059167686</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="E8" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435881</v>
       </c>
       <c r="F8" t="n">
-        <v>432284.999999998</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="G8" t="n">
         <v>65600</v>
@@ -1517,10 +1517,10 @@
         <v>1168.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>28044</v>
+        <v>28043.99999998855</v>
       </c>
       <c r="AD8" t="n">
-        <v>7010.999999999999</v>
+        <v>7010.999999988549</v>
       </c>
       <c r="AE8" t="n">
         <v>63098.99999999999</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>265562.5641025631</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="C9" t="n">
-        <v>265562.5641025551</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D9" t="n">
-        <v>1437452.059167686</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="E9" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435881</v>
       </c>
       <c r="F9" t="n">
-        <v>432284.999999998</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="G9" t="n">
         <v>65600</v>
@@ -1648,10 +1648,10 @@
         <v>30.74999999999994</v>
       </c>
       <c r="AC9" t="n">
-        <v>737.9999999999986</v>
+        <v>737.9999999964682</v>
       </c>
       <c r="AD9" t="n">
-        <v>184.4999999999997</v>
+        <v>184.4999999964716</v>
       </c>
       <c r="AE9" t="n">
         <v>1660.499999999997</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>265562.5641025631</v>
+        <v>265562.5641025632</v>
       </c>
       <c r="C10" t="n">
-        <v>265562.5641025551</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D10" t="n">
         <v>265562.5641025636</v>
       </c>
       <c r="E10" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435881</v>
       </c>
       <c r="F10" t="n">
-        <v>432284.999999998</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="G10" t="n">
         <v>65600</v>
@@ -1779,10 +1779,10 @@
         <v>20.5000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>492.0000000000024</v>
+        <v>491.9999999964719</v>
       </c>
       <c r="AD10" t="n">
-        <v>123.0000000000006</v>
+        <v>122.9999999964726</v>
       </c>
       <c r="AE10" t="n">
         <v>1107.000000000005</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>265562.5641025631</v>
+        <v>265562.5641025632</v>
       </c>
       <c r="C11" t="n">
-        <v>265562.5641025551</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D11" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="E11" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435881</v>
       </c>
       <c r="F11" t="n">
-        <v>81284.3589743568</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="G11" t="n">
         <v>65600</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-3.528011216502591e-09</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
+        <v>265562.5641025633</v>
+      </c>
+      <c r="C12" t="n">
+        <v>265562.5641025634</v>
+      </c>
+      <c r="D12" t="n">
         <v>265562.5641025631</v>
       </c>
-      <c r="C12" t="n">
-        <v>265562.5641025549</v>
-      </c>
-      <c r="D12" t="n">
-        <v>265562.5641025638</v>
-      </c>
       <c r="E12" t="n">
+        <v>81284.35897435881</v>
+      </c>
+      <c r="F12" t="n">
         <v>240158.3333333332</v>
-      </c>
-      <c r="F12" t="n">
-        <v>81284.3589743568</v>
       </c>
       <c r="G12" t="n">
         <v>65600</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-3.528011216502591e-09</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>265562.5641025628</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C13" t="n">
-        <v>265562.5641025553</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D13" t="n">
-        <v>265562.5641025555</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="E13" t="n">
+        <v>81284.35897435881</v>
+      </c>
+      <c r="F13" t="n">
         <v>240158.3333333332</v>
-      </c>
-      <c r="F13" t="n">
-        <v>81284.3589743568</v>
       </c>
       <c r="G13" t="n">
         <v>65600</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>265562.5641025564</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C14" t="n">
-        <v>265562.5641025553</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D14" t="n">
-        <v>265562.5641025536</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="E14" t="n">
+        <v>81284.35897435877</v>
+      </c>
+      <c r="F14" t="n">
         <v>240158.3333333332</v>
-      </c>
-      <c r="F14" t="n">
-        <v>81284.35897435679</v>
       </c>
       <c r="G14" t="n">
         <v>65600</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-3.528011216502591e-09</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2356,16 +2356,16 @@
         <v>265562.5641025634</v>
       </c>
       <c r="C15" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025637</v>
       </c>
       <c r="D15" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E15" t="n">
-        <v>240158.3333333333</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F15" t="n">
-        <v>81284.3589743568</v>
+        <v>240158.3333333332</v>
       </c>
       <c r="G15" t="n">
         <v>65600</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>265562.5641025642</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C16" t="n">
-        <v>265562.5641025642</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="D16" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E16" t="n">
-        <v>81284.35897435615</v>
+        <v>81284.35897435281</v>
       </c>
       <c r="F16" t="n">
-        <v>81284.35897435877</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>65600</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>265562.5641025642</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C17" t="n">
-        <v>265562.5641025635</v>
+        <v>265562.5641025633</v>
       </c>
       <c r="D17" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E17" t="n">
-        <v>81284.358974359</v>
+        <v>81284.35897435859</v>
       </c>
       <c r="F17" t="n">
-        <v>81284.35897435878</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>65600</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025448</v>
       </c>
       <c r="C18" t="n">
-        <v>265562.564102564</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="D18" t="n">
-        <v>265562.5641025548</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="E18" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435281</v>
       </c>
       <c r="F18" t="n">
-        <v>81284.35897435871</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>65600</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>265562.5641025643</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="C19" t="n">
-        <v>265562.5641025635</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="D19" t="n">
-        <v>265562.5641025543</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="E19" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435286</v>
       </c>
       <c r="F19" t="n">
-        <v>81284.35897435679</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>65600</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>265562.5641025643</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="C20" t="n">
-        <v>265562.5641025642</v>
+        <v>265562.5641025418</v>
       </c>
       <c r="D20" t="n">
-        <v>265562.5641025614</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="E20" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435286</v>
       </c>
       <c r="F20" t="n">
-        <v>81284.35897435638</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>65600</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>265562.5641025643</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="C21" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025439</v>
       </c>
       <c r="D21" t="n">
-        <v>265562.5641025614</v>
+        <v>265562.5641025432</v>
       </c>
       <c r="E21" t="n">
-        <v>81284.35897435877</v>
+        <v>81284.35897435286</v>
       </c>
       <c r="F21" t="n">
-        <v>81284.358974359</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>65600</v>
